--- a/REGULAR/TREASURY/ATIENZA MARVIN.xlsx
+++ b/REGULAR/TREASURY/ATIENZA MARVIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARIZ-PC\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284F4A0A-F13C-47BF-89DF-4C2E52044DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -378,11 +377,41 @@
   <si>
     <t>11/18-19-6/15/2020</t>
   </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>3/31,4/3,4/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>BDAY 4/5/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>4/12-14/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -758,6 +787,15 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,15 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,7 +1061,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1078,25 +1106,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K158" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K207" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1403,16 +1431,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K158"/>
+  <dimension ref="A2:K207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A138" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A188" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="L154" sqref="L154"/>
+      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,68 +1462,68 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1528,18 +1556,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1586,7 +1614,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1596,13 +1624,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>41.2</v>
+        <v>88.2</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="50" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="21"/>
@@ -2842,7 +2870,7 @@
       <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="61" t="s">
+      <c r="A71" s="50" t="s">
         <v>67</v>
       </c>
       <c r="B71" s="21"/>
@@ -3730,7 +3758,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="42">
-        <f t="shared" ref="A115:A125" si="0">EDATE(A114,1)</f>
+        <f t="shared" ref="A115:A124" si="0">EDATE(A114,1)</f>
         <v>42430</v>
       </c>
       <c r="B115" s="21"/>
@@ -4255,14 +4283,14 @@
         <v>1.25</v>
       </c>
       <c r="D140" s="45"/>
-      <c r="E140" s="62"/>
+      <c r="E140" s="51"/>
       <c r="F140" s="16"/>
       <c r="G140" s="44">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H140" s="45"/>
-      <c r="I140" s="62"/>
+      <c r="I140" s="51"/>
       <c r="J140" s="13"/>
       <c r="K140" s="16"/>
     </row>
@@ -4415,7 +4443,7 @@
       <c r="K147" s="21"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="61" t="s">
+      <c r="A148" s="50" t="s">
         <v>78</v>
       </c>
       <c r="B148" s="21"/>
@@ -4631,10 +4659,7 @@
         <v>1.25</v>
       </c>
       <c r="D158" s="45"/>
-      <c r="E158" s="62">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>25</v>
-      </c>
+      <c r="E158" s="51"/>
       <c r="F158" s="16">
         <v>77</v>
       </c>
@@ -4643,11 +4668,1048 @@
         <v>1.25</v>
       </c>
       <c r="H158" s="45"/>
-      <c r="I158" s="62"/>
+      <c r="I158" s="51"/>
       <c r="J158" s="13"/>
-      <c r="K158" s="63">
+      <c r="K158" s="52">
         <v>43655</v>
       </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="42">
+        <v>43800</v>
+      </c>
+      <c r="B159" s="21"/>
+      <c r="C159" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D159" s="41"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H159" s="41"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="21"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B160" s="21"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="41"/>
+      <c r="E160" s="10">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>57</v>
+      </c>
+      <c r="F160" s="21"/>
+      <c r="G160" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H160" s="41"/>
+      <c r="I160" s="10">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>88.2</v>
+      </c>
+      <c r="J160" s="12"/>
+      <c r="K160" s="21"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="42">
+        <f>EDATE(A159,1)</f>
+        <v>43831</v>
+      </c>
+      <c r="B161" s="21"/>
+      <c r="C161" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D161" s="41"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H161" s="41"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="21"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="42">
+        <f t="shared" ref="A162:A207" si="1">EDATE(A161,1)</f>
+        <v>43862</v>
+      </c>
+      <c r="B162" s="21"/>
+      <c r="C162" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D162" s="41"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H162" s="41"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="21"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="42">
+        <f t="shared" si="1"/>
+        <v>43891</v>
+      </c>
+      <c r="B163" s="21"/>
+      <c r="C163" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D163" s="41"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H163" s="41"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="21"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="42">
+        <f t="shared" si="1"/>
+        <v>43922</v>
+      </c>
+      <c r="B164" s="21"/>
+      <c r="C164" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D164" s="41"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H164" s="41"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="21"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="42">
+        <f t="shared" si="1"/>
+        <v>43952</v>
+      </c>
+      <c r="B165" s="16"/>
+      <c r="C165" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D165" s="45"/>
+      <c r="E165" s="51"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="44">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H165" s="45"/>
+      <c r="I165" s="51"/>
+      <c r="J165" s="13"/>
+      <c r="K165" s="16"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="42">
+        <f t="shared" si="1"/>
+        <v>43983</v>
+      </c>
+      <c r="B166" s="21"/>
+      <c r="C166" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D166" s="41"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H166" s="41"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="21"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="42">
+        <f t="shared" si="1"/>
+        <v>44013</v>
+      </c>
+      <c r="B167" s="21"/>
+      <c r="C167" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D167" s="41"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H167" s="41"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="21"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="42">
+        <f t="shared" si="1"/>
+        <v>44044</v>
+      </c>
+      <c r="B168" s="21"/>
+      <c r="C168" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D168" s="41"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H168" s="41"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="21"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="42">
+        <f t="shared" si="1"/>
+        <v>44075</v>
+      </c>
+      <c r="B169" s="21"/>
+      <c r="C169" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D169" s="41"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H169" s="41"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="21"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="42">
+        <f t="shared" si="1"/>
+        <v>44105</v>
+      </c>
+      <c r="B170" s="21"/>
+      <c r="C170" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D170" s="41"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H170" s="41"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="21"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="42">
+        <f t="shared" si="1"/>
+        <v>44136</v>
+      </c>
+      <c r="B171" s="21"/>
+      <c r="C171" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D171" s="41"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H171" s="41"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="21"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="42">
+        <f t="shared" si="1"/>
+        <v>44166</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C172" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D172" s="41">
+        <v>5</v>
+      </c>
+      <c r="E172" s="10"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H172" s="41"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="21"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B173" s="21"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="41"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H173" s="41"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="21"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="42">
+        <f>EDATE(A172,1)</f>
+        <v>44197</v>
+      </c>
+      <c r="B174" s="21"/>
+      <c r="C174" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D174" s="41"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H174" s="41"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="21"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="42">
+        <f t="shared" si="1"/>
+        <v>44228</v>
+      </c>
+      <c r="B175" s="21"/>
+      <c r="C175" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D175" s="41"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H175" s="41"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="21"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="42">
+        <f t="shared" si="1"/>
+        <v>44256</v>
+      </c>
+      <c r="B176" s="21"/>
+      <c r="C176" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D176" s="41"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H176" s="41"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="21"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="42">
+        <f t="shared" si="1"/>
+        <v>44287</v>
+      </c>
+      <c r="B177" s="21"/>
+      <c r="C177" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D177" s="41"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H177" s="41"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="21"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="42">
+        <f t="shared" si="1"/>
+        <v>44317</v>
+      </c>
+      <c r="B178" s="21"/>
+      <c r="C178" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D178" s="41"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H178" s="41"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="21"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="42">
+        <f t="shared" si="1"/>
+        <v>44348</v>
+      </c>
+      <c r="B179" s="21"/>
+      <c r="C179" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D179" s="41"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H179" s="41"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="21"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="42">
+        <f t="shared" si="1"/>
+        <v>44378</v>
+      </c>
+      <c r="B180" s="21"/>
+      <c r="C180" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D180" s="41"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H180" s="41"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="21"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="42">
+        <f t="shared" si="1"/>
+        <v>44409</v>
+      </c>
+      <c r="B181" s="21"/>
+      <c r="C181" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D181" s="41"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H181" s="41"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="21"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="42">
+        <f t="shared" si="1"/>
+        <v>44440</v>
+      </c>
+      <c r="B182" s="21"/>
+      <c r="C182" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D182" s="41"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H182" s="41"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="21"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="42">
+        <f t="shared" si="1"/>
+        <v>44470</v>
+      </c>
+      <c r="B183" s="21"/>
+      <c r="C183" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D183" s="41"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H183" s="41"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="21"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="42">
+        <f t="shared" si="1"/>
+        <v>44501</v>
+      </c>
+      <c r="B184" s="21"/>
+      <c r="C184" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D184" s="41"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H184" s="41"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="21"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="42">
+        <f t="shared" si="1"/>
+        <v>44531</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C185" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D185" s="41">
+        <v>5</v>
+      </c>
+      <c r="E185" s="10"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H185" s="41"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="21"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B186" s="21"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="41"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="21"/>
+      <c r="G186" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H186" s="41"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="21"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="42">
+        <f>EDATE(A185,1)</f>
+        <v>44562</v>
+      </c>
+      <c r="B187" s="21"/>
+      <c r="C187" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D187" s="41"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H187" s="41"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="21"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="42">
+        <f t="shared" si="1"/>
+        <v>44593</v>
+      </c>
+      <c r="B188" s="21"/>
+      <c r="C188" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D188" s="41"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H188" s="41"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="21"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="42">
+        <f t="shared" si="1"/>
+        <v>44621</v>
+      </c>
+      <c r="B189" s="21"/>
+      <c r="C189" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D189" s="41"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H189" s="41"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="21"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="42">
+        <f t="shared" si="1"/>
+        <v>44652</v>
+      </c>
+      <c r="B190" s="21"/>
+      <c r="C190" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D190" s="41"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H190" s="41"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="21"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="42">
+        <f t="shared" si="1"/>
+        <v>44682</v>
+      </c>
+      <c r="B191" s="21"/>
+      <c r="C191" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D191" s="41"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H191" s="41"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="21"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="42">
+        <f t="shared" si="1"/>
+        <v>44713</v>
+      </c>
+      <c r="B192" s="21"/>
+      <c r="C192" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D192" s="41"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H192" s="41"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="21"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="42">
+        <f t="shared" si="1"/>
+        <v>44743</v>
+      </c>
+      <c r="B193" s="21"/>
+      <c r="C193" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D193" s="41"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H193" s="41"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="21"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="42">
+        <f t="shared" si="1"/>
+        <v>44774</v>
+      </c>
+      <c r="B194" s="21"/>
+      <c r="C194" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D194" s="41"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H194" s="41"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="21"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="42">
+        <f t="shared" si="1"/>
+        <v>44805</v>
+      </c>
+      <c r="B195" s="21"/>
+      <c r="C195" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D195" s="41"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H195" s="41"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="21"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="42">
+        <f t="shared" si="1"/>
+        <v>44835</v>
+      </c>
+      <c r="B196" s="21"/>
+      <c r="C196" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D196" s="41"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H196" s="41"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="21"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="42">
+        <f t="shared" si="1"/>
+        <v>44866</v>
+      </c>
+      <c r="B197" s="21"/>
+      <c r="C197" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D197" s="41"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H197" s="41"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="21"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="42">
+        <f t="shared" si="1"/>
+        <v>44896</v>
+      </c>
+      <c r="B198" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C198" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D198" s="41">
+        <v>5</v>
+      </c>
+      <c r="E198" s="10"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H198" s="41"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="21"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B199" s="21"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="41"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H199" s="41"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="21"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="42">
+        <f>EDATE(A198,1)</f>
+        <v>44927</v>
+      </c>
+      <c r="B200" s="21"/>
+      <c r="C200" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D200" s="41"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H200" s="41"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="21"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="42">
+        <f t="shared" si="1"/>
+        <v>44958</v>
+      </c>
+      <c r="B201" s="21"/>
+      <c r="C201" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D201" s="41"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H201" s="41"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="21"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="42">
+        <f t="shared" si="1"/>
+        <v>44986</v>
+      </c>
+      <c r="B202" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C202" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D202" s="41"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H202" s="41">
+        <v>3</v>
+      </c>
+      <c r="I202" s="10"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="42"/>
+      <c r="B203" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C203" s="14"/>
+      <c r="D203" s="41"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H203" s="41"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="42">
+        <f>EDATE(A202,1)</f>
+        <v>45017</v>
+      </c>
+      <c r="B204" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C204" s="14"/>
+      <c r="D204" s="41">
+        <v>3</v>
+      </c>
+      <c r="E204" s="10"/>
+      <c r="F204" s="21"/>
+      <c r="G204" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H204" s="41"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="42">
+        <f t="shared" si="1"/>
+        <v>45047</v>
+      </c>
+      <c r="B205" s="21"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="41"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H205" s="41"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="21"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="42">
+        <f t="shared" si="1"/>
+        <v>45078</v>
+      </c>
+      <c r="B206" s="21"/>
+      <c r="C206" s="14"/>
+      <c r="D206" s="41"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H206" s="41"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="12"/>
+      <c r="K206" s="21"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="42">
+        <f t="shared" si="1"/>
+        <v>45108</v>
+      </c>
+      <c r="B207" s="21"/>
+      <c r="C207" s="14"/>
+      <c r="D207" s="41"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H207" s="41"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4664,10 +5726,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4690,7 +5752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4712,17 +5774,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -4799,12 +5861,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="48"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
